--- a/Finance_Data/2020/Sept_2020.xlsx
+++ b/Finance_Data/2020/Sept_2020.xlsx
@@ -1,41 +1,143 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AJ\Desktop\Finance_Analysis_PowerBI\Finance_Data\2020\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E7F13C-3794-4D4F-8B4A-D83F5581697F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1680" yWindow="0" windowWidth="11655" windowHeight="10545" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="465" yWindow="1095" windowWidth="15375" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>LOCATION</t>
+  </si>
+  <si>
+    <t>ITEM</t>
+  </si>
+  <si>
+    <t>COST</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>COMMENTS</t>
+  </si>
+  <si>
+    <t>Safeway</t>
+  </si>
+  <si>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>Starbucks</t>
+  </si>
+  <si>
+    <t>Coffee</t>
+  </si>
+  <si>
+    <t>London Drugs</t>
+  </si>
+  <si>
+    <t>Personal</t>
+  </si>
+  <si>
+    <t>Bough K-Mini Keurig and 24-pack pods</t>
+  </si>
+  <si>
+    <t>Steam</t>
+  </si>
+  <si>
+    <t>Entertainment</t>
+  </si>
+  <si>
+    <t>Bought 'Among Us'</t>
+  </si>
+  <si>
+    <t>Bought ingredients to make wings for Lucas' friends</t>
+  </si>
+  <si>
+    <t>Mom visited today</t>
+  </si>
+  <si>
+    <t>Anytime Fitness</t>
+  </si>
+  <si>
+    <t>Got 7-day free trial; still had to pay for the keycard</t>
+  </si>
+  <si>
+    <t>Bought gym membership today; 30.99*2*1.05</t>
+  </si>
+  <si>
+    <t>Bought halls</t>
+  </si>
+  <si>
+    <t>Active Living</t>
+  </si>
+  <si>
+    <t>Got COVID refund (260 for membership; 80 for locker; 25 for deposit)</t>
+  </si>
+  <si>
+    <t>Little Caesars</t>
+  </si>
+  <si>
+    <t>Restaurant</t>
+  </si>
+  <si>
+    <t>Paid my share for pizza/games night</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -43,6 +145,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -59,84 +167,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -436,199 +486,320 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="67.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" customFormat="1" s="3">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>DATE</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>LOCATION</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>ITEM</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>COST</t>
-        </is>
-      </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>COMMENTS</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>44075</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Safeway</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Food</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>-4.67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>44100</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <f>-5.69*1.05</f>
+        <v>-5.9745000000000008</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>44075</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4">
         <v>-9.84</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>44075</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Shirley</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Rent</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>-670</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>44075</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Starbucks</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Coffee</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>-4.67</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>44078</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Safeway</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Food</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5">
         <v>-20.16</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>44082</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Safeway</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Food</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
         <v>-11.23</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>44084</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>-23.43</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>44088</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>-29.98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>44089</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>-14.99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>44092</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>-111.6</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>44095</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>-19.71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>44098</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <v>-83.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>44101</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>-11.94</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>44081</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>London Drugs</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Personal</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14">
         <v>-89.48</v>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Bough K-Mini Keurig and 24-pack pods</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>44084</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Safeway</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Food</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>-23.43</v>
-      </c>
-      <c r="F8" s="2" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>44088</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Safeway</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Food</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>-29.98</v>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15">
+        <v>-52.49</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>44095</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16">
+        <v>-65.08</v>
+      </c>
+      <c r="F16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>44096</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17">
+        <v>-6.3</v>
+      </c>
+      <c r="F17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>44102</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18">
+        <v>382</v>
+      </c>
+      <c r="F18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>44093</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19">
+        <v>-15</v>
+      </c>
+      <c r="F19" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Finance_Data/2020/Sept_2020.xlsx
+++ b/Finance_Data/2020/Sept_2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AJ\Desktop\Finance_Analysis_PowerBI\Finance_Data\2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E7F13C-3794-4D4F-8B4A-D83F5581697F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90DBDA07-A47E-4F44-A54D-D1BA58F0D7DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="465" yWindow="1095" windowWidth="15375" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16275" yWindow="345" windowWidth="13575" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
   <si>
     <t>DATE</t>
   </si>
@@ -97,12 +97,6 @@
   </si>
   <si>
     <t>Bought halls</t>
-  </si>
-  <si>
-    <t>Active Living</t>
-  </si>
-  <si>
-    <t>Got COVID refund (260 for membership; 80 for locker; 25 for deposit)</t>
   </si>
   <si>
     <t>Little Caesars</t>
@@ -135,18 +129,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -167,12 +155,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -487,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,23 +488,23 @@
     <col min="6" max="6" width="67.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -608,7 +595,6 @@
       <c r="D7">
         <v>-23.43</v>
       </c>
-      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -730,7 +716,7 @@
       <c r="D15">
         <v>-52.49</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -770,36 +756,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>44102</v>
+        <v>44093</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D18">
-        <v>382</v>
+        <v>-15</v>
       </c>
       <c r="F18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>44093</v>
-      </c>
-      <c r="B19" t="s">
         <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19">
-        <v>-15</v>
-      </c>
-      <c r="F19" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
